--- a/medicine/Enfance/Delphine_Jacquot/Delphine_Jacquot.xlsx
+++ b/medicine/Enfance/Delphine_Jacquot/Delphine_Jacquot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delphine Jacquot (née en 1982) est une auteure et illustratrice française de littérature jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Delphine Jacquot a suivi une formation de dessinatrice-maquettiste et 3 années en communication à l''école régionale des Beaux-Arts de Rennes. Puis, pendant 3 ans elle étudie lors d'un échange Erasmus l'illustration aux Beaux arts de Bruxelles. 
-Depuis 2007, elle illustre des livres pour enfants. Elle utilise plusieurs techniques : crayon, collage, acrylique, feutre, pour développer des compositions sophistiquées et des univers graphiques oniriques[1],[2],[3],[4],[5],[6].
+Depuis 2007, elle illustre des livres pour enfants. Elle utilise plusieurs techniques : crayon, collage, acrylique, feutre, pour développer des compositions sophistiquées et des univers graphiques oniriques.
 En 2014, elle obtient le Grand Prix de l’illustration décerné par le Musée de l’illustration jeunesse de Moulins.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a participé à de nombreuses œuvres[7], dont :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle a participé à de nombreuses œuvres, dont :
 La Ceinture de feu (Gautier-Languereau, 2007)
 Le Cavalier bleu (Thierry Magnier, 2007)
 Les Histoires de la Belle et la Bête racontées dans le monde, texte de Fabienne Morel et Gilles Bizouerne, Syros, 2008
@@ -606,11 +622,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2014 : Grand Prix de l’illustration décerné par le Musée de l’illustration jeunesse de Moulins, pour Les aventures improbables de Peter et Herman
-2019 :  Prix Libbylit[8] délivré par l' IBBY, catégorie Album, pour Marions-les !, avec Éric Sanvoisin
-2020 : Prix Ficelle[9] pour Marions-les !, avec Éric Sanvoisin</t>
+2019 :  Prix Libbylit délivré par l' IBBY, catégorie Album, pour Marions-les !, avec Éric Sanvoisin
+2020 : Prix Ficelle pour Marions-les !, avec Éric Sanvoisin</t>
         </is>
       </c>
     </row>
